--- a/data/trans_orig/CLASESOCIAL_MasIngresos_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/CLASESOCIAL_MasIngresos_R-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E86E1CB0-0B70-4C27-AE6C-C017F7DE7A6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{44677064-DEF1-4F26-8739-DCF0E46B5D0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{060FDAD1-BDDF-477A-A10C-85CC0102F276}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{DAEA06DB-75E1-483C-8E33-A97F57799AB7}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="226">
   <si>
     <t>Clase social manual de la persona con más ingresos del hogar (clases de I a V, SEE) en 2023 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -77,52 +77,49 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>5,21%</t>
+    <t>5,18%</t>
   </si>
   <si>
     <t>2,21%</t>
   </si>
   <si>
-    <t>0,87%</t>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>No ha trabajado</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
   </si>
   <si>
     <t>4,98%</t>
   </si>
   <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>No ha trabajado</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
     <t>2,31%</t>
   </si>
   <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
+    <t>4,71%</t>
   </si>
   <si>
     <t>Sí</t>
@@ -131,28 +128,28 @@
     <t>23,71%</t>
   </si>
   <si>
-    <t>15,57%</t>
-  </si>
-  <si>
-    <t>34,25%</t>
+    <t>15,31%</t>
+  </si>
+  <si>
+    <t>33,44%</t>
   </si>
   <si>
     <t>24,92%</t>
   </si>
   <si>
-    <t>18,47%</t>
-  </si>
-  <si>
-    <t>32,36%</t>
+    <t>18,98%</t>
+  </si>
+  <si>
+    <t>32,35%</t>
   </si>
   <si>
     <t>24,39%</t>
   </si>
   <si>
-    <t>19,4%</t>
-  </si>
-  <si>
-    <t>30,03%</t>
+    <t>19,48%</t>
+  </si>
+  <si>
+    <t>30,29%</t>
   </si>
   <si>
     <t>No</t>
@@ -161,28 +158,28 @@
     <t>72,82%</t>
   </si>
   <si>
-    <t>61,16%</t>
-  </si>
-  <si>
-    <t>80,96%</t>
+    <t>63,16%</t>
+  </si>
+  <si>
+    <t>81,95%</t>
   </si>
   <si>
     <t>70,31%</t>
   </si>
   <si>
-    <t>62,94%</t>
-  </si>
-  <si>
-    <t>76,75%</t>
+    <t>62,39%</t>
+  </si>
+  <si>
+    <t>76,15%</t>
   </si>
   <si>
     <t>71,41%</t>
   </si>
   <si>
-    <t>65,92%</t>
-  </si>
-  <si>
-    <t>77,09%</t>
+    <t>65,21%</t>
+  </si>
+  <si>
+    <t>76,57%</t>
   </si>
   <si>
     <t>100%</t>
@@ -194,10 +191,10 @@
     <t>0,77%</t>
   </si>
   <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
   </si>
   <si>
     <t>1,2%</t>
@@ -212,499 +209,508 @@
     <t>0,99%</t>
   </si>
   <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
   </si>
   <si>
     <t>1,12%</t>
   </si>
   <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
   </si>
   <si>
     <t>6,52%</t>
   </si>
   <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>20,63%</t>
+    <t>21,28%</t>
   </si>
   <si>
     <t>3,98%</t>
   </si>
   <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
+    <t>13,03%</t>
   </si>
   <si>
     <t>33,46%</t>
   </si>
   <si>
-    <t>29,08%</t>
-  </si>
-  <si>
-    <t>37,66%</t>
+    <t>29,44%</t>
+  </si>
+  <si>
+    <t>38,02%</t>
   </si>
   <si>
     <t>28,87%</t>
   </si>
   <si>
-    <t>24,21%</t>
-  </si>
-  <si>
-    <t>32,53%</t>
+    <t>24,19%</t>
+  </si>
+  <si>
+    <t>32,3%</t>
   </si>
   <si>
     <t>31,03%</t>
   </si>
   <si>
-    <t>28,42%</t>
-  </si>
-  <si>
-    <t>33,94%</t>
+    <t>28,02%</t>
+  </si>
+  <si>
+    <t>33,79%</t>
   </si>
   <si>
     <t>64,65%</t>
   </si>
   <si>
-    <t>60,4%</t>
-  </si>
-  <si>
-    <t>69,05%</t>
+    <t>60,05%</t>
+  </si>
+  <si>
+    <t>68,85%</t>
   </si>
   <si>
     <t>63,41%</t>
   </si>
   <si>
+    <t>53,96%</t>
+  </si>
+  <si>
+    <t>67,67%</t>
+  </si>
+  <si>
+    <t>63,99%</t>
+  </si>
+  <si>
+    <t>59,0%</t>
+  </si>
+  <si>
+    <t>66,85%</t>
+  </si>
+  <si>
+    <t>10/50</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>47,52%</t>
+  </si>
+  <si>
+    <t>43,07%</t>
+  </si>
+  <si>
+    <t>56,11%</t>
+  </si>
+  <si>
+    <t>37,14%</t>
+  </si>
+  <si>
+    <t>34,39%</t>
+  </si>
+  <si>
+    <t>39,87%</t>
+  </si>
+  <si>
+    <t>42,28%</t>
+  </si>
+  <si>
+    <t>39,55%</t>
+  </si>
+  <si>
+    <t>47,49%</t>
+  </si>
+  <si>
+    <t>48,23%</t>
+  </si>
+  <si>
+    <t>40,4%</t>
+  </si>
+  <si>
+    <t>52,48%</t>
+  </si>
+  <si>
+    <t>56,24%</t>
+  </si>
+  <si>
+    <t>53,76%</t>
+  </si>
+  <si>
+    <t>59,15%</t>
+  </si>
+  <si>
+    <t>52,27%</t>
+  </si>
+  <si>
+    <t>47,82%</t>
+  </si>
+  <si>
+    <t>54,98%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>50,95%</t>
+  </si>
+  <si>
+    <t>46,66%</t>
+  </si>
+  <si>
     <t>54,86%</t>
   </si>
   <si>
-    <t>67,39%</t>
-  </si>
-  <si>
-    <t>63,99%</t>
-  </si>
-  <si>
-    <t>58,78%</t>
-  </si>
-  <si>
-    <t>66,94%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>3,17%</t>
+    <t>47,78%</t>
+  </si>
+  <si>
+    <t>39,12%</t>
+  </si>
+  <si>
+    <t>66,0%</t>
+  </si>
+  <si>
+    <t>49,22%</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>59,64%</t>
+  </si>
+  <si>
+    <t>47,68%</t>
+  </si>
+  <si>
+    <t>43,7%</t>
+  </si>
+  <si>
+    <t>51,98%</t>
+  </si>
+  <si>
+    <t>46,18%</t>
+  </si>
+  <si>
+    <t>29,87%</t>
+  </si>
+  <si>
+    <t>54,0%</t>
+  </si>
+  <si>
+    <t>46,86%</t>
+  </si>
+  <si>
+    <t>36,9%</t>
+  </si>
+  <si>
+    <t>51,28%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
   </si>
   <si>
     <t>2,08%</t>
   </si>
   <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>57,81%</t>
+  </si>
+  <si>
+    <t>54,03%</t>
+  </si>
+  <si>
+    <t>61,15%</t>
+  </si>
+  <si>
+    <t>47,86%</t>
+  </si>
+  <si>
+    <t>44,87%</t>
+  </si>
+  <si>
+    <t>50,92%</t>
+  </si>
+  <si>
+    <t>52,4%</t>
+  </si>
+  <si>
+    <t>50,15%</t>
+  </si>
+  <si>
+    <t>54,8%</t>
+  </si>
+  <si>
+    <t>39,37%</t>
+  </si>
+  <si>
+    <t>36,22%</t>
+  </si>
+  <si>
+    <t>42,96%</t>
+  </si>
+  <si>
+    <t>43,18%</t>
+  </si>
+  <si>
+    <t>39,98%</t>
+  </si>
+  <si>
+    <t>46,27%</t>
+  </si>
+  <si>
+    <t>41,44%</t>
+  </si>
+  <si>
+    <t>39,19%</t>
+  </si>
+  <si>
+    <t>43,73%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
   </si>
   <si>
     <t>2,17%</t>
   </si>
   <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>47,52%</t>
-  </si>
-  <si>
-    <t>43,2%</t>
-  </si>
-  <si>
-    <t>56,1%</t>
-  </si>
-  <si>
-    <t>37,14%</t>
-  </si>
-  <si>
-    <t>34,48%</t>
-  </si>
-  <si>
-    <t>39,88%</t>
-  </si>
-  <si>
-    <t>42,28%</t>
-  </si>
-  <si>
-    <t>39,58%</t>
-  </si>
-  <si>
-    <t>47,14%</t>
-  </si>
-  <si>
-    <t>48,23%</t>
-  </si>
-  <si>
-    <t>40,65%</t>
-  </si>
-  <si>
-    <t>52,4%</t>
-  </si>
-  <si>
-    <t>56,24%</t>
-  </si>
-  <si>
-    <t>53,32%</t>
-  </si>
-  <si>
-    <t>59,16%</t>
-  </si>
-  <si>
-    <t>52,27%</t>
-  </si>
-  <si>
-    <t>47,77%</t>
-  </si>
-  <si>
-    <t>54,81%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>50,95%</t>
-  </si>
-  <si>
-    <t>46,69%</t>
-  </si>
-  <si>
-    <t>55,58%</t>
-  </si>
-  <si>
-    <t>47,78%</t>
-  </si>
-  <si>
-    <t>39,23%</t>
-  </si>
-  <si>
-    <t>66,2%</t>
-  </si>
-  <si>
-    <t>49,22%</t>
-  </si>
-  <si>
-    <t>44,42%</t>
-  </si>
-  <si>
-    <t>60,14%</t>
-  </si>
-  <si>
-    <t>47,68%</t>
-  </si>
-  <si>
-    <t>43,09%</t>
-  </si>
-  <si>
-    <t>51,94%</t>
-  </si>
-  <si>
-    <t>46,18%</t>
-  </si>
-  <si>
-    <t>30,58%</t>
-  </si>
-  <si>
-    <t>53,98%</t>
-  </si>
-  <si>
-    <t>46,86%</t>
-  </si>
-  <si>
-    <t>36,76%</t>
-  </si>
-  <si>
-    <t>51,44%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>57,81%</t>
-  </si>
-  <si>
-    <t>54,66%</t>
-  </si>
-  <si>
-    <t>61,59%</t>
-  </si>
-  <si>
-    <t>47,86%</t>
-  </si>
-  <si>
-    <t>44,73%</t>
-  </si>
-  <si>
-    <t>50,87%</t>
-  </si>
-  <si>
-    <t>50,03%</t>
-  </si>
-  <si>
-    <t>39,37%</t>
-  </si>
-  <si>
-    <t>35,46%</t>
-  </si>
-  <si>
-    <t>42,42%</t>
-  </si>
-  <si>
-    <t>43,18%</t>
-  </si>
-  <si>
-    <t>40,18%</t>
-  </si>
-  <si>
-    <t>46,58%</t>
-  </si>
-  <si>
-    <t>41,44%</t>
-  </si>
-  <si>
-    <t>39,17%</t>
-  </si>
-  <si>
-    <t>43,82%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
   </si>
   <si>
     <t>1,11%</t>
   </si>
   <si>
-    <t>0,75%</t>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
   </si>
   <si>
     <t>4,72%</t>
   </si>
   <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
   </si>
   <si>
     <t>3,03%</t>
   </si>
   <si>
-    <t>4,47%</t>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
   </si>
   <si>
     <t>48,19%</t>
   </si>
   <si>
-    <t>45,86%</t>
-  </si>
-  <si>
-    <t>50,86%</t>
+    <t>46,16%</t>
+  </si>
+  <si>
+    <t>51,23%</t>
   </si>
   <si>
     <t>41,03%</t>
   </si>
   <si>
-    <t>38,6%</t>
-  </si>
-  <si>
-    <t>46,87%</t>
+    <t>38,64%</t>
+  </si>
+  <si>
+    <t>47,29%</t>
   </si>
   <si>
     <t>44,39%</t>
   </si>
   <si>
-    <t>42,78%</t>
-  </si>
-  <si>
-    <t>47,34%</t>
+    <t>42,74%</t>
+  </si>
+  <si>
+    <t>47,83%</t>
   </si>
   <si>
     <t>48,99%</t>
   </si>
   <si>
-    <t>46,31%</t>
-  </si>
-  <si>
-    <t>51,33%</t>
+    <t>46,15%</t>
+  </si>
+  <si>
+    <t>51,21%</t>
   </si>
   <si>
     <t>51,67%</t>
   </si>
   <si>
-    <t>46,71%</t>
-  </si>
-  <si>
-    <t>53,96%</t>
+    <t>46,24%</t>
+  </si>
+  <si>
+    <t>53,92%</t>
   </si>
   <si>
     <t>50,41%</t>
   </si>
   <si>
-    <t>47,43%</t>
-  </si>
-  <si>
-    <t>51,87%</t>
+    <t>47,27%</t>
+  </si>
+  <si>
+    <t>52,0%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1119,7 +1125,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DE74B16-6C62-41EE-8AF0-8E7AF134F024}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99B3A373-C424-427F-90D5-1DBE2AA812AB}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1327,16 +1333,16 @@
         <v>26</v>
       </c>
       <c r="P5" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>27</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C6" s="7">
         <v>28</v>
@@ -1345,13 +1351,13 @@
         <v>24175</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>31</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>32</v>
       </c>
       <c r="H6" s="7">
         <v>54</v>
@@ -1360,13 +1366,13 @@
         <v>32581</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>34</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>35</v>
       </c>
       <c r="M6" s="7">
         <v>82</v>
@@ -1375,19 +1381,19 @@
         <v>56756</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>37</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C7" s="7">
         <v>86</v>
@@ -1396,13 +1402,13 @@
         <v>74260</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>41</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>42</v>
       </c>
       <c r="H7" s="7">
         <v>175</v>
@@ -1411,13 +1417,13 @@
         <v>91912</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>45</v>
       </c>
       <c r="M7" s="7">
         <v>261</v>
@@ -1426,13 +1432,13 @@
         <v>166172</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1447,13 +1453,13 @@
         <v>101982</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H8" s="7">
         <v>243</v>
@@ -1462,13 +1468,13 @@
         <v>130733</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M8" s="7">
         <v>361</v>
@@ -1477,18 +1483,18 @@
         <v>232715</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>10</v>
@@ -1500,13 +1506,13 @@
         <v>4212</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="G9" s="7" t="s">
         <v>52</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="H9" s="7">
         <v>15</v>
@@ -1515,13 +1521,13 @@
         <v>7414</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="M9" s="7">
         <v>20</v>
@@ -1530,13 +1536,13 @@
         <v>11626</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1551,13 +1557,13 @@
         <v>6154</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="H10" s="7">
         <v>29</v>
@@ -1566,13 +1572,13 @@
         <v>40447</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="M10" s="7">
         <v>34</v>
@@ -1581,19 +1587,19 @@
         <v>46601</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C11" s="7">
         <v>206</v>
@@ -1602,13 +1608,13 @@
         <v>183982</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H11" s="7">
         <v>291</v>
@@ -1617,13 +1623,13 @@
         <v>178997</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="M11" s="7">
         <v>497</v>
@@ -1632,19 +1638,19 @@
         <v>362978</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C12" s="7">
         <v>396</v>
@@ -1653,13 +1659,13 @@
         <v>355476</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="H12" s="7">
         <v>663</v>
@@ -1668,13 +1674,13 @@
         <v>393108</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="M12" s="7">
         <v>1059</v>
@@ -1683,13 +1689,13 @@
         <v>748584</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1704,13 +1710,13 @@
         <v>549823</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H13" s="7">
         <v>998</v>
@@ -1719,13 +1725,13 @@
         <v>619967</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M13" s="7">
         <v>1610</v>
@@ -1734,18 +1740,18 @@
         <v>1169790</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -1757,13 +1763,13 @@
         <v>32894</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="H14" s="7">
         <v>43</v>
@@ -1772,13 +1778,13 @@
         <v>33767</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="M14" s="7">
         <v>71</v>
@@ -1787,13 +1793,13 @@
         <v>66661</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1808,13 +1814,13 @@
         <v>11355</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>89</v>
+        <v>14</v>
       </c>
       <c r="H15" s="7">
         <v>54</v>
@@ -1823,13 +1829,13 @@
         <v>36374</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="M15" s="7">
         <v>63</v>
@@ -1838,19 +1844,19 @@
         <v>47729</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C16" s="7">
         <v>412</v>
@@ -1859,13 +1865,13 @@
         <v>493818</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H16" s="7">
         <v>537</v>
@@ -1874,13 +1880,13 @@
         <v>393753</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="M16" s="7">
         <v>949</v>
@@ -1889,19 +1895,19 @@
         <v>887571</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C17" s="7">
         <v>515</v>
@@ -1910,13 +1916,13 @@
         <v>501181</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="H17" s="7">
         <v>883</v>
@@ -1925,13 +1931,13 @@
         <v>596185</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="M17" s="7">
         <v>1398</v>
@@ -1940,13 +1946,13 @@
         <v>1097366</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1961,13 +1967,13 @@
         <v>1039248</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H18" s="7">
         <v>1517</v>
@@ -1976,13 +1982,13 @@
         <v>1060079</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M18" s="7">
         <v>2481</v>
@@ -1991,18 +1997,18 @@
         <v>2099327</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2014,13 +2020,13 @@
         <v>7268</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="H19" s="7">
         <v>34</v>
@@ -2029,13 +2035,13 @@
         <v>21293</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="M19" s="7">
         <v>42</v>
@@ -2044,13 +2050,13 @@
         <v>28561</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>131</v>
+        <v>53</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2065,13 +2071,13 @@
         <v>2782</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="H20" s="7">
         <v>47</v>
@@ -2080,13 +2086,13 @@
         <v>31522</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>137</v>
+        <v>25</v>
       </c>
       <c r="M20" s="7">
         <v>51</v>
@@ -2095,19 +2101,19 @@
         <v>34303</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C21" s="7">
         <v>341</v>
@@ -2116,13 +2122,13 @@
         <v>371274</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="H21" s="7">
         <v>418</v>
@@ -2131,13 +2137,13 @@
         <v>417736</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="M21" s="7">
         <v>759</v>
@@ -2146,19 +2152,19 @@
         <v>789010</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C22" s="7">
         <v>323</v>
@@ -2167,13 +2173,13 @@
         <v>347448</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="H22" s="7">
         <v>548</v>
@@ -2182,13 +2188,13 @@
         <v>403819</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="M22" s="7">
         <v>871</v>
@@ -2197,13 +2203,13 @@
         <v>751267</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2218,13 +2224,13 @@
         <v>728772</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H23" s="7">
         <v>1047</v>
@@ -2233,13 +2239,13 @@
         <v>874371</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M23" s="7">
         <v>1723</v>
@@ -2248,18 +2254,18 @@
         <v>1603142</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2271,13 +2277,13 @@
         <v>11980</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="H24" s="7">
         <v>50</v>
@@ -2286,13 +2292,13 @@
         <v>33778</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>164</v>
+        <v>133</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>66</v>
+        <v>159</v>
       </c>
       <c r="M24" s="7">
         <v>65</v>
@@ -2301,13 +2307,13 @@
         <v>45758</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2322,13 +2328,13 @@
         <v>15228</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="H25" s="7">
         <v>85</v>
@@ -2337,13 +2343,13 @@
         <v>69371</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="M25" s="7">
         <v>99</v>
@@ -2352,19 +2358,19 @@
         <v>84599</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>94</v>
+        <v>170</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C26" s="7">
         <v>587</v>
@@ -2373,13 +2379,13 @@
         <v>558114</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="H26" s="7">
         <v>761</v>
@@ -2388,13 +2394,13 @@
         <v>550580</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="M26" s="7">
         <v>1348</v>
@@ -2403,19 +2409,19 @@
         <v>1108694</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>116</v>
+        <v>178</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C27" s="7">
         <v>390</v>
@@ -2424,13 +2430,13 @@
         <v>380081</v>
       </c>
       <c r="E27" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="G27" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>185</v>
       </c>
       <c r="H27" s="7">
         <v>666</v>
@@ -2439,13 +2445,13 @@
         <v>496704</v>
       </c>
       <c r="J27" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="L27" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>188</v>
       </c>
       <c r="M27" s="7">
         <v>1056</v>
@@ -2454,13 +2460,13 @@
         <v>876785</v>
       </c>
       <c r="O27" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q27" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2475,13 +2481,13 @@
         <v>965403</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H28" s="7">
         <v>1562</v>
@@ -2490,13 +2496,13 @@
         <v>1150432</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M28" s="7">
         <v>2568</v>
@@ -2505,13 +2511,13 @@
         <v>2115835</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2528,13 +2534,13 @@
         <v>57861</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>194</v>
+        <v>26</v>
       </c>
       <c r="H29" s="7">
         <v>148</v>
@@ -2543,13 +2549,13 @@
         <v>99145</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>138</v>
+        <v>193</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>94</v>
+        <v>194</v>
       </c>
       <c r="M29" s="7">
         <v>206</v>
@@ -2558,7 +2564,7 @@
         <v>157006</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>92</v>
+        <v>195</v>
       </c>
       <c r="P29" s="7" t="s">
         <v>196</v>
@@ -2585,7 +2591,7 @@
         <v>199</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>166</v>
+        <v>200</v>
       </c>
       <c r="H30" s="7">
         <v>223</v>
@@ -2594,13 +2600,13 @@
         <v>181061</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="M30" s="7">
         <v>257</v>
@@ -2609,19 +2615,19 @@
         <v>218619</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>132</v>
+        <v>205</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C31" s="7">
         <v>1574</v>
@@ -2630,13 +2636,13 @@
         <v>1631363</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="H31" s="7">
         <v>2061</v>
@@ -2645,34 +2651,34 @@
         <v>1573647</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="M31" s="7">
         <v>3635</v>
       </c>
       <c r="N31" s="7">
-        <v>3205010</v>
+        <v>3205009</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C32" s="7">
         <v>1710</v>
@@ -2681,13 +2687,13 @@
         <v>1658446</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="H32" s="7">
         <v>2935</v>
@@ -2696,13 +2702,13 @@
         <v>1981728</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="M32" s="7">
         <v>4645</v>
@@ -2711,13 +2717,13 @@
         <v>3640174</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2732,13 +2738,13 @@
         <v>3385228</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H33" s="7">
         <v>5367</v>
@@ -2747,33 +2753,33 @@
         <v>3835581</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M33" s="7">
         <v>8743</v>
       </c>
       <c r="N33" s="7">
-        <v>7220809</v>
+        <v>7220808</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/CLASESOCIAL_MasIngresos_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/CLASESOCIAL_MasIngresos_R-Habitat-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{44677064-DEF1-4F26-8739-DCF0E46B5D0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{39E8BC59-7AE2-4FEB-9847-2A7F97E7848D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{DAEA06DB-75E1-483C-8E33-A97F57799AB7}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{60072EA0-2D8D-4AB8-8553-D2E96226BA96}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>NC</t>
@@ -185,7 +185,7 @@
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>0,77%</t>
@@ -290,7 +290,7 @@
     <t>66,85%</t>
   </si>
   <si>
-    <t>10/50</t>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>3,17%</t>
@@ -398,7 +398,7 @@
     <t>54,98%</t>
   </si>
   <si>
-    <t>mas de 50</t>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>1,0%</t>
@@ -1125,7 +1125,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99B3A373-C424-427F-90D5-1DBE2AA812AB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49F7A3C9-FF3A-469F-85F4-2A20F4EEC438}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
